--- a/hex文件/中科瑞泰电子软件版本信息_20190306.xlsx
+++ b/hex文件/中科瑞泰电子软件版本信息_20190306.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="170">
   <si>
     <t>HEX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,12 +282,6 @@
   <si>
     <t>默认不开启避障；
 避障控制算法优化；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能喊话第一版：
-支持播放音乐、录音等；
-应用通信协议修改，支持V3.5版本以上；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -688,6 +682,22 @@
   </si>
   <si>
     <t>megaphone-V03-04-190306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">支持新对讲机模块DMR818；
+初始音量值5（0~100）；
+按键功能更新；
+音量+音量-键：每次+-10个单位。
+下一首键：2秒内短按，切换下一首；长按超过3秒，中继功能开关切换。
+播放模式键：3秒内短按，播放开始/暂停/继续切换；长按超过3秒，普通播放/单曲循环/列表循环切换。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能喊话第一版：
+支持播放音乐、录音等；
+应用通信协议修改，支持V3.5版本以上；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1146,7 +1156,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>9</v>
@@ -1155,12 +1165,12 @@
         <v>54</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -1284,16 +1294,16 @@
         <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>61</v>
@@ -1302,53 +1312,53 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -1358,39 +1368,39 @@
     </row>
     <row r="14" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="G15" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1419,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1439,15 +1449,15 @@
         <v>53</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -1498,7 +1508,7 @@
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1512,91 +1522,91 @@
         <v>57</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1607,71 +1617,71 @@
     </row>
     <row r="13" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="C13" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="G13" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="C14" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="G14" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="F15" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1720,7 +1730,7 @@
         <v>53</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -1771,7 +1781,7 @@
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -1781,21 +1791,21 @@
     </row>
     <row r="6" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1808,7 +1818,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>56</v>
@@ -1820,36 +1830,36 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -1909,7 +1919,7 @@
         <v>53</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -1970,20 +1980,20 @@
     </row>
     <row r="6" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -2058,25 +2068,25 @@
     </row>
     <row r="12" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -2085,25 +2095,25 @@
     </row>
     <row r="14" spans="1:6" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -2112,20 +2122,20 @@
     </row>
     <row r="16" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2174,12 +2184,12 @@
         <v>53</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -2263,24 +2273,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -2290,7 +2300,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>16</v>
@@ -2305,19 +2315,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2363,12 +2373,12 @@
         <v>53</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -2420,21 +2430,21 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
         <v>91</v>
       </c>
-      <c r="B6" t="s">
-        <v>92</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -2444,28 +2454,28 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
         <v>98</v>
       </c>
-      <c r="B8" t="s">
-        <v>99</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -2517,12 +2527,12 @@
         <v>53</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>34</v>
@@ -2530,7 +2540,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="6"/>
     </row>
